--- a/2-Tests/OpenExcelSdk.Tests/10-Files/SetCellValueDate.xlsx
+++ b/2-Tests/OpenExcelSdk.Tests/10-Files/SetCellValueDate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a990f455bb745add/ProjetsDev/10-Pierlam/OpenExcelSdk/Dev/OpenExcelSdk/2-Tests/OpenExcelSdk.Tests/10-Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="11_AD4DB114E441178AC67DF4536695FF58683EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD16A77B-E6D9-438F-A08B-2C4F5B55DA9A}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="11_AD4DB114E441178AC67DF4536695FF58683EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C0D824B-1BA3-4F5E-ADB4-1AFAB164E672}"/>
   <bookViews>
-    <workbookView xWindow="10455" yWindow="3390" windowWidth="16260" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11910" yWindow="3000" windowWidth="16260" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -170,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -180,6 +181,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,6 +201,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,9 +470,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -501,91 +513,106 @@
         <v>43592</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="9">
+        <v>44150.604166666664</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>42949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>12</v>
+      <c r="C6" s="11">
+        <v>31789.474826388891</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>23.45</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.44092592592592594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4">
-        <v>46001</v>
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>23.45</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.34218749999999998</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5">
-        <v>145.56700000000001</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
+        <v>46001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="6">
-        <v>43719.521354166667</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="5">
+        <v>145.56700000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <f>B6+1</f>
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="6">
+        <v>43719.521354166667</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1">
+        <v>15</v>
+      </c>
+      <c r="B12">
         <f>B7+1</f>
-        <v>24.45</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <f>B8+1</f>
+        <v>24.45</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B14" s="7">
         <v>43719.521354166667</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2-Tests/OpenExcelSdk.Tests/10-Files/SetCellValueDate.xlsx
+++ b/2-Tests/OpenExcelSdk.Tests/10-Files/SetCellValueDate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a990f455bb745add/ProjetsDev/10-Pierlam/OpenExcelSdk/Dev/OpenExcelSdk/2-Tests/OpenExcelSdk.Tests/10-Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="11_AD4DB114E441178AC67DF4536695FF58683EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C0D824B-1BA3-4F5E-ADB4-1AFAB164E672}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="11_AD4DB114E441178AC67DF4536695FF58683EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31A09A34-C891-4F3E-86BF-517AF0AF7AFC}"/>
   <bookViews>
-    <workbookView xWindow="11910" yWindow="3000" windowWidth="16260" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10230" yWindow="5640" windowWidth="16155" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>type</t>
   </si>
@@ -69,37 +69,14 @@
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>double+fmt</t>
-  </si>
-  <si>
-    <t>date+fmt</t>
-  </si>
-  <si>
-    <t>formula</t>
-  </si>
-  <si>
-    <t>formula+BgColor</t>
-  </si>
-  <si>
-    <t>date+fmt+BgColor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -118,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,12 +111,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -171,21 +142,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,11 +436,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -514,7 +478,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <v>44150.604166666664</v>
       </c>
     </row>
@@ -525,7 +489,7 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="6">
         <v>42949</v>
       </c>
     </row>
@@ -536,7 +500,7 @@
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="7">
         <v>31789.474826388891</v>
       </c>
     </row>
@@ -547,72 +511,9 @@
       <c r="B7">
         <v>12</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="8">
         <v>0.44092592592592594</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>23.45</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0.34218749999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4">
-        <v>46001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5">
-        <v>145.56700000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="6">
-        <v>43719.521354166667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <f>B7+1</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1">
-        <f>B8+1</f>
-        <v>24.45</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="7">
-        <v>43719.521354166667</v>
-      </c>
-      <c r="C14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
